--- a/asd_balanced.xlsx
+++ b/asd_balanced.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Easter-Egg-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF1A097-5040-4293-9AC2-D35DEB8C627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA709D46-40BB-49FF-87C7-E190C6B8B320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3090" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -315,7 +310,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -342,9 +337,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -382,9 +377,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,26 +412,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,26 +447,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -665,7 +626,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -741,28 +702,28 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="9">
         <v>35</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="9">
         <v>1.2663</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="9">
         <v>5</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="9">
         <v>1.4482999999999999</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="9">
         <v>10</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="9">
         <v>1.4482999999999999</v>
       </c>
       <c r="I3" s="2"/>
@@ -770,28 +731,28 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="9">
         <v>35</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="9">
         <v>1.2216</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="9">
         <v>5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="9">
         <v>1.3274999999999999</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="9">
         <v>10</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="9">
         <v>1.3407</v>
       </c>
       <c r="I4" s="2">
@@ -805,28 +766,28 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="9">
         <v>90</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="9">
         <v>1.1869000000000001</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="9">
         <v>22</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="9">
         <v>1.2381</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="9">
         <v>44</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="9">
         <v>1.2605</v>
       </c>
       <c r="I5" s="2"/>
@@ -834,28 +795,28 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="9">
         <v>90</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="9">
         <v>1.1869000000000001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="9">
         <v>22</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="9">
         <v>1.2381</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="9">
         <v>44</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="9">
         <v>1.2605</v>
       </c>
       <c r="I6" s="2"/>
@@ -863,28 +824,28 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="9">
         <v>265</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="9">
         <v>1.1316999999999999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="9">
         <v>80</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="9">
         <v>1.153</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="9">
         <v>147</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="9">
         <v>1.1617</v>
       </c>
       <c r="I7" s="2">
@@ -898,28 +859,28 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="9">
         <v>265</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="9">
         <v>1.1316999999999999</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="9">
         <v>80</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="9">
         <v>1.153</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="9">
         <v>147</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="9">
         <v>1.1617</v>
       </c>
       <c r="I8" s="2"/>
@@ -968,28 +929,28 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="9">
         <v>265</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="9">
         <v>1.1316999999999999</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="9">
         <v>80</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="9">
         <v>1.153</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="9">
         <v>147</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="9">
         <v>1.1617</v>
       </c>
       <c r="I10" s="2"/>
@@ -997,28 +958,28 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="9">
         <v>492</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="9">
         <v>1.1007</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="9">
         <v>163</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="9">
         <v>1.1111</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="9">
         <v>311</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="9">
         <v>1.1157999999999999</v>
       </c>
       <c r="I11" s="2">
@@ -1032,28 +993,28 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="9">
         <v>492</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="9">
         <v>1.1007</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="9">
         <v>163</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="9">
         <v>1.1111</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="9">
         <v>311</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="9">
         <v>1.1157999999999999</v>
       </c>
       <c r="I12" s="2"/>
@@ -1061,28 +1022,28 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="9">
         <v>492</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="9">
         <v>1.1007</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="9">
         <v>163</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="9">
         <v>1.1111</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="9">
         <v>311</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="9">
         <v>1.1157999999999999</v>
       </c>
       <c r="I13" s="2"/>
@@ -1090,28 +1051,28 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="9">
         <v>492</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="9">
         <v>1.1007</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="9">
         <v>163</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="9">
         <v>1.1111</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="9">
         <v>311</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="9">
         <v>1.1157999999999999</v>
       </c>
       <c r="I14" s="2"/>
@@ -1119,28 +1080,28 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="9">
         <v>492</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="9">
         <v>1.1007</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="9">
         <v>163</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="9">
         <v>1.1111</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="9">
         <v>311</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="9">
         <v>1.1157999999999999</v>
       </c>
       <c r="I15" s="2"/>
@@ -1148,28 +1109,28 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="9">
         <v>994</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="9">
         <v>1.0807</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="9">
         <v>345</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="9">
         <v>1.0871999999999999</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="9">
         <v>589</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="9">
         <v>1.0899000000000001</v>
       </c>
       <c r="I16" s="2">
@@ -1183,28 +1144,28 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="9">
         <v>994</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="9">
         <v>1.0807</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="9">
         <v>345</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="9">
         <v>1.0871999999999999</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="9">
         <v>589</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="9">
         <v>1.0899000000000001</v>
       </c>
       <c r="I17" s="2"/>
@@ -1212,28 +1173,28 @@
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="9">
         <v>994</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="9">
         <v>1.0807</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="9">
         <v>345</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="9">
         <v>1.0871999999999999</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="9">
         <v>589</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="9">
         <v>1.0899000000000001</v>
       </c>
       <c r="I18" s="2"/>
@@ -1241,28 +1202,28 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="9">
         <v>994</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="9">
         <v>1.0807</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="9">
         <v>345</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="9">
         <v>1.0871999999999999</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="9">
         <v>589</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="9">
         <v>1.0899000000000001</v>
       </c>
       <c r="I19" s="2"/>
@@ -1270,28 +1231,28 @@
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="9">
         <v>1465</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="9">
         <v>1.0674999999999999</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="9">
         <v>524</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="9">
         <v>1.0714999999999999</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="9">
         <v>906</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="9">
         <v>1.0737000000000001</v>
       </c>
       <c r="I20" s="2">
@@ -1305,28 +1266,28 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="9">
         <v>1465</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="9">
         <v>1.0674999999999999</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="9">
         <v>524</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="9">
         <v>1.0714999999999999</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="9">
         <v>906</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="9">
         <v>1.0737000000000001</v>
       </c>
       <c r="I21" s="2"/>
@@ -1334,28 +1295,28 @@
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="9">
         <v>1465</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="9">
         <v>1.0674999999999999</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="9">
         <v>524</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="9">
         <v>1.0714999999999999</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="9">
         <v>906</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="9">
         <v>1.0737000000000001</v>
       </c>
       <c r="I22" s="2"/>
@@ -1363,28 +1324,28 @@
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="9">
         <v>1465</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="9">
         <v>1.0674999999999999</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="9">
         <v>524</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="9">
         <v>1.0714999999999999</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="9">
         <v>906</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="9">
         <v>1.0737000000000001</v>
       </c>
       <c r="I23" s="2"/>
@@ -1392,28 +1353,28 @@
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="9">
         <v>2031</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="9">
         <v>1.0578000000000001</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="9">
         <v>740</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="9">
         <v>1.0608</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="9">
         <v>1293</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="9">
         <v>1.0622</v>
       </c>
       <c r="I24" s="2">
@@ -1427,28 +1388,28 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="9">
         <v>2031</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="9">
         <v>1.0578000000000001</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="9">
         <v>740</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="9">
         <v>1.0608</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="9">
         <v>1293</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="9">
         <v>1.0622</v>
       </c>
       <c r="I25" s="2"/>
@@ -1456,28 +1417,28 @@
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="9">
         <v>2031</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="9">
         <v>1.0578000000000001</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="9">
         <v>740</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="9">
         <v>1.0608</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="9">
         <v>1293</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="9">
         <v>1.0622</v>
       </c>
       <c r="I26" s="2"/>
@@ -1485,28 +1446,28 @@
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="9">
         <v>3443</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="9">
         <v>1.0507</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="9">
         <v>1272</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="9">
         <v>1.0528</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="9">
         <v>1976</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="9">
         <v>1.0539000000000001</v>
       </c>
       <c r="I27" s="2">
@@ -1520,28 +1481,28 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="9">
         <v>3443</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="9">
         <v>1.0507</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="9">
         <v>1272</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="9">
         <v>1.0528</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="9">
         <v>1976</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="9">
         <v>1.0539000000000001</v>
       </c>
       <c r="I28" s="2"/>
@@ -1549,28 +1510,28 @@
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="9">
         <v>4408</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="9">
         <v>1.0448999999999999</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="9">
         <v>1645</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="9">
         <v>1.0466</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="9">
         <v>2569</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="9">
         <v>1.0475000000000001</v>
       </c>
       <c r="I29" s="2">
@@ -1584,28 +1545,28 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="9">
         <v>4408</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="9">
         <v>1.0448999999999999</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="9">
         <v>1645</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="9">
         <v>1.0466</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="9">
         <v>2569</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="9">
         <v>1.0475000000000001</v>
       </c>
       <c r="I30" s="2"/>
@@ -1613,28 +1574,28 @@
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="9">
         <v>4408</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="9">
         <v>1.0448999999999999</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="9">
         <v>1645</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="9">
         <v>1.0466</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="9">
         <v>2569</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="9">
         <v>1.0475000000000001</v>
       </c>
       <c r="I31" s="2"/>
@@ -1642,28 +1603,28 @@
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="9">
         <v>5491</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="9">
         <v>1.0405</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="9">
         <v>2066</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="9">
         <v>1.0417000000000001</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="9">
         <v>3240</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="9">
         <v>1.0424</v>
       </c>
       <c r="I32" s="2">
@@ -1677,28 +1638,28 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="9">
         <v>5491</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="9">
         <v>1.0405</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="9">
         <v>2066</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="9">
         <v>1.0417000000000001</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="9">
         <v>3240</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="9">
         <v>1.0424</v>
       </c>
       <c r="I33" s="2"/>
@@ -1706,28 +1667,28 @@
       <c r="K33" s="8"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="9">
         <v>25060</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="9">
         <v>1</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="9">
         <v>5721</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="9">
         <v>1</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="9">
         <v>55560</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="9">
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -1741,28 +1702,28 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="9">
         <v>25060</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="9">
         <v>1</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="9">
         <v>5721</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="9">
         <v>1</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="9">
         <v>55560</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="9">
         <v>1</v>
       </c>
       <c r="I35" s="2"/>

--- a/asd_balanced.xlsx
+++ b/asd_balanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Easter-Egg-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA709D46-40BB-49FF-87C7-E190C6B8B320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B475E126-0192-45B7-B119-D27AA9A71BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>type</t>
   </si>
@@ -185,6 +185,10 @@
   </si>
   <si>
     <t>hidden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -625,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,28 +671,28 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="5">
         <v>35</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="5">
         <v>1.2663</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="5">
         <v>1.4482999999999999</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="5">
         <v>10</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="5">
         <v>1.4482999999999999</v>
       </c>
       <c r="I2" s="2">
@@ -702,28 +706,28 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>35</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>1.2663</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <v>1.4482999999999999</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="5">
         <v>10</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="5">
         <v>1.4482999999999999</v>
       </c>
       <c r="I3" s="2"/>
@@ -731,28 +735,28 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>35</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>1.2216</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="5">
         <v>1.3274999999999999</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="5">
         <v>10</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="5">
         <v>1.3407</v>
       </c>
       <c r="I4" s="2">
@@ -766,28 +770,28 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <v>90</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>1.1869000000000001</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>22</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="5">
         <v>1.2381</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <v>44</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="5">
         <v>1.2605</v>
       </c>
       <c r="I5" s="2"/>
@@ -795,28 +799,28 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>90</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="5">
         <v>1.1869000000000001</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>22</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <v>1.2381</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <v>44</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="5">
         <v>1.2605</v>
       </c>
       <c r="I6" s="2"/>
@@ -824,28 +828,28 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>265</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>1.1316999999999999</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>80</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <v>1.153</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="5">
         <v>147</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="5">
         <v>1.1617</v>
       </c>
       <c r="I7" s="2">
@@ -859,28 +863,28 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>265</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>1.1316999999999999</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <v>80</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="5">
         <v>1.153</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="5">
         <v>147</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="5">
         <v>1.1617</v>
       </c>
       <c r="I8" s="2"/>
@@ -888,28 +892,28 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>265</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>1.1316999999999999</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <v>80</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="5">
         <v>1.153</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="5">
         <v>147</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="5">
         <v>1.1617</v>
       </c>
       <c r="I9" s="2">
@@ -929,28 +933,28 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>265</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>1.1316999999999999</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>80</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="5">
         <v>1.153</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="5">
         <v>147</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="5">
         <v>1.1617</v>
       </c>
       <c r="I10" s="2"/>
@@ -958,28 +962,28 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>492</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>1.1007</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>163</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="5">
         <v>1.1111</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="5">
         <v>311</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="5">
         <v>1.1157999999999999</v>
       </c>
       <c r="I11" s="2">
@@ -993,28 +997,28 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="5">
         <v>492</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5">
         <v>1.1007</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="5">
         <v>163</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="5">
         <v>1.1111</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="5">
         <v>311</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="5">
         <v>1.1157999999999999</v>
       </c>
       <c r="I12" s="2"/>
@@ -1022,28 +1026,28 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>492</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>1.1007</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <v>163</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="5">
         <v>1.1111</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="5">
         <v>311</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="5">
         <v>1.1157999999999999</v>
       </c>
       <c r="I13" s="2"/>
@@ -1051,28 +1055,28 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>492</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="5">
         <v>1.1007</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="5">
         <v>163</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="5">
         <v>1.1111</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="5">
         <v>311</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="5">
         <v>1.1157999999999999</v>
       </c>
       <c r="I14" s="2"/>
@@ -1080,28 +1084,28 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>492</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="5">
         <v>1.1007</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="5">
         <v>163</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="5">
         <v>1.1111</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="5">
         <v>311</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="5">
         <v>1.1157999999999999</v>
       </c>
       <c r="I15" s="2"/>
@@ -1109,28 +1113,28 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>994</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5">
         <v>1.0807</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="5">
         <v>345</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="5">
         <v>1.0871999999999999</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="5">
         <v>589</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="5">
         <v>1.0899000000000001</v>
       </c>
       <c r="I16" s="2">
@@ -1144,28 +1148,28 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>994</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="5">
         <v>1.0807</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="5">
         <v>345</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="5">
         <v>1.0871999999999999</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="5">
         <v>589</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="5">
         <v>1.0899000000000001</v>
       </c>
       <c r="I17" s="2"/>
@@ -1173,28 +1177,28 @@
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="5">
         <v>994</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="5">
         <v>1.0807</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="5">
         <v>345</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="5">
         <v>1.0871999999999999</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="5">
         <v>589</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="5">
         <v>1.0899000000000001</v>
       </c>
       <c r="I18" s="2"/>
@@ -1202,28 +1206,28 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="5">
         <v>994</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="5">
         <v>1.0807</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="5">
         <v>345</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="5">
         <v>1.0871999999999999</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="5">
         <v>589</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="5">
         <v>1.0899000000000001</v>
       </c>
       <c r="I19" s="2"/>
@@ -1231,28 +1235,28 @@
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="5">
         <v>1465</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="5">
         <v>1.0674999999999999</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="5">
         <v>524</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="5">
         <v>1.0714999999999999</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="5">
         <v>906</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="5">
         <v>1.0737000000000001</v>
       </c>
       <c r="I20" s="2">
@@ -1266,28 +1270,28 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="5">
         <v>1465</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="5">
         <v>1.0674999999999999</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="5">
         <v>524</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="5">
         <v>1.0714999999999999</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="5">
         <v>906</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="5">
         <v>1.0737000000000001</v>
       </c>
       <c r="I21" s="2"/>
@@ -1295,28 +1299,28 @@
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="5">
         <v>1465</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="5">
         <v>1.0674999999999999</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="5">
         <v>524</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="5">
         <v>1.0714999999999999</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="5">
         <v>906</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="5">
         <v>1.0737000000000001</v>
       </c>
       <c r="I22" s="2"/>
@@ -1324,28 +1328,28 @@
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="5">
         <v>1465</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="5">
         <v>1.0674999999999999</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="5">
         <v>524</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="5">
         <v>1.0714999999999999</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="5">
         <v>906</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="5">
         <v>1.0737000000000001</v>
       </c>
       <c r="I23" s="2"/>
@@ -1353,28 +1357,28 @@
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="5">
         <v>2031</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="5">
         <v>1.0578000000000001</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="5">
         <v>740</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="5">
         <v>1.0608</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="5">
         <v>1293</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="5">
         <v>1.0622</v>
       </c>
       <c r="I24" s="2">
@@ -1388,28 +1392,28 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="5">
         <v>2031</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="5">
         <v>1.0578000000000001</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="5">
         <v>740</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="5">
         <v>1.0608</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="5">
         <v>1293</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="5">
         <v>1.0622</v>
       </c>
       <c r="I25" s="2"/>
@@ -1417,28 +1421,28 @@
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="5">
         <v>2031</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="5">
         <v>1.0578000000000001</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="5">
         <v>740</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="5">
         <v>1.0608</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="5">
         <v>1293</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="5">
         <v>1.0622</v>
       </c>
       <c r="I26" s="2"/>
@@ -1446,28 +1450,28 @@
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="5">
         <v>3443</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="5">
         <v>1.0507</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="5">
         <v>1272</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="5">
         <v>1.0528</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="5">
         <v>1976</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="5">
         <v>1.0539000000000001</v>
       </c>
       <c r="I27" s="2">
@@ -1481,28 +1485,28 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="5">
         <v>3443</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="5">
         <v>1.0507</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="5">
         <v>1272</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="5">
         <v>1.0528</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="5">
         <v>1976</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="5">
         <v>1.0539000000000001</v>
       </c>
       <c r="I28" s="2"/>
@@ -1510,28 +1514,28 @@
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="5">
         <v>4408</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="5">
         <v>1.0448999999999999</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="5">
         <v>1645</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="5">
         <v>1.0466</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="5">
         <v>2569</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="5">
         <v>1.0475000000000001</v>
       </c>
       <c r="I29" s="2">
@@ -1545,28 +1549,28 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="5">
         <v>4408</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="5">
         <v>1.0448999999999999</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="5">
         <v>1645</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="5">
         <v>1.0466</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="5">
         <v>2569</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="5">
         <v>1.0475000000000001</v>
       </c>
       <c r="I30" s="2"/>
@@ -1574,28 +1578,28 @@
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="5">
         <v>4408</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="5">
         <v>1.0448999999999999</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="5">
         <v>1645</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="5">
         <v>1.0466</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="5">
         <v>2569</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="5">
         <v>1.0475000000000001</v>
       </c>
       <c r="I31" s="2"/>
@@ -1603,28 +1607,28 @@
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="5">
         <v>5491</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="5">
         <v>1.0405</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="5">
         <v>2066</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="5">
         <v>1.0417000000000001</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="5">
         <v>3240</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="5">
         <v>1.0424</v>
       </c>
       <c r="I32" s="2">
@@ -1638,28 +1642,28 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="5">
         <v>5491</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="5">
         <v>1.0405</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="5">
         <v>2066</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="5">
         <v>1.0417000000000001</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="5">
         <v>3240</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="5">
         <v>1.0424</v>
       </c>
       <c r="I33" s="2"/>
